--- a/Proyecto final/Documentacion Final Optical Marketing/Informes e Investigaciones/OPENCVDAR.xlsx
+++ b/Proyecto final/Documentacion Final Optical Marketing/Informes e Investigaciones/OPENCVDAR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="14055" windowHeight="4620"/>
@@ -288,8 +288,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,25 +553,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,7 +676,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -698,7 +710,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -874,29 +885,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C16"/>
+      <selection sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
-    <col min="9" max="10" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -928,89 +939,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="75.75" customHeight="1" thickBot="1">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>90</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>90</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>95</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>80</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>100</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>100</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>100</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <f>SUM(B4:K4)</f>
         <v>955</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>70</v>
       </c>
       <c r="C5" s="1">
@@ -1040,16 +1051,16 @@
       <c r="K5" s="1">
         <v>60</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:L7" si="0">SUM(B5:K5)</f>
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>60</v>
       </c>
       <c r="C6" s="1">
@@ -1079,16 +1090,16 @@
       <c r="K6" s="1">
         <v>60</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>70</v>
       </c>
       <c r="C7" s="1">
@@ -1118,84 +1129,112 @@
       <c r="K7" s="1">
         <v>60</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:C16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
